--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F644CCA-1D02-4F38-B00B-15ECF3492E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DC38B8-04FE-4C6A-87E4-1FC5F3780E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="178">
   <si>
     <t>firstName</t>
   </si>
@@ -60,19 +60,534 @@
     <t>שרון</t>
   </si>
   <si>
-    <t>מייזנר 15 פ"ת</t>
+    <t>אגמי</t>
+  </si>
+  <si>
+    <t>אלמה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ויקי </t>
+  </si>
+  <si>
+    <t>ישראל עידוד 5 פ"ת</t>
+  </si>
+  <si>
+    <t>אורינגר</t>
+  </si>
+  <si>
+    <t>עודד</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>אברהם</t>
+  </si>
+  <si>
+    <t>אליזה</t>
+  </si>
+  <si>
+    <t>רן</t>
+  </si>
+  <si>
+    <t>גיא</t>
+  </si>
+  <si>
+    <t>מגדר</t>
+  </si>
+  <si>
+    <t>בן</t>
+  </si>
+  <si>
+    <t>dateBirth</t>
+  </si>
+  <si>
+    <t>הילה</t>
+  </si>
+  <si>
+    <t>16.5.2014</t>
+  </si>
+  <si>
+    <t>אתי</t>
+  </si>
+  <si>
+    <t>01.06.2014</t>
+  </si>
+  <si>
+    <t>מיטל</t>
+  </si>
+  <si>
+    <t>מאיה</t>
+  </si>
+  <si>
+    <t>12.5.2014</t>
+  </si>
+  <si>
+    <t>פרח</t>
+  </si>
+  <si>
+    <t>30.9.2014</t>
+  </si>
+  <si>
+    <t>אפרת</t>
+  </si>
+  <si>
+    <t>נועה</t>
+  </si>
+  <si>
+    <t>22.9.2014</t>
+  </si>
+  <si>
+    <t>04.08.2014</t>
+  </si>
+  <si>
+    <t>צופיה</t>
+  </si>
+  <si>
+    <t>הדר</t>
+  </si>
+  <si>
+    <t>רינת</t>
+  </si>
+  <si>
+    <t>27.4.2014</t>
+  </si>
+  <si>
+    <t>אורלי כהן מואס</t>
+  </si>
+  <si>
+    <t>2.4.2014</t>
+  </si>
+  <si>
+    <t>נטלי</t>
+  </si>
+  <si>
+    <t>לימור</t>
+  </si>
+  <si>
+    <t>שמחי דוד 7 דירה 34 קומה 9</t>
+  </si>
+  <si>
+    <t>20.6.2014</t>
+  </si>
+  <si>
+    <t>אלכס</t>
+  </si>
+  <si>
+    <t>15.4.2014</t>
+  </si>
+  <si>
+    <t>עמנואל זמיר 4 דירה 18</t>
+  </si>
+  <si>
+    <t>ליהי</t>
+  </si>
+  <si>
+    <t>נעמה</t>
+  </si>
+  <si>
+    <t>2.7.2014</t>
+  </si>
+  <si>
+    <t>17.10.2013</t>
+  </si>
+  <si>
+    <t>העצמאות 97 דירה 7 פ״ת</t>
+  </si>
+  <si>
+    <t>ינאי</t>
+  </si>
+  <si>
+    <t>יאיר</t>
+  </si>
+  <si>
+    <t>אפטוויצר</t>
+  </si>
+  <si>
+    <t>פלק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אלונה </t>
+  </si>
+  <si>
+    <t>ניגונים 37 פ"ת</t>
+  </si>
+  <si>
+    <t>העצמאות 73 דירה 7 פ"ת</t>
+  </si>
+  <si>
+    <t>בן גוריון 34 דירה 1 פ"ת</t>
+  </si>
+  <si>
+    <t>לאה אמסטר 10 פ"ת</t>
+  </si>
+  <si>
+    <t>העצמאות 67 דירה 3 פ"ת</t>
+  </si>
+  <si>
+    <t>קפלנסקי 67 דירה 22 פ"ת</t>
+  </si>
+  <si>
+    <t>העצמאות 73 דירה 13 פ"ת</t>
+  </si>
+  <si>
+    <t>חיים זכאי 2 , דירה 6 פ"ת</t>
+  </si>
+  <si>
+    <t>עמנואל זמיר 12 דירה 1 פ"ת</t>
+  </si>
+  <si>
+    <t>בן גוריון 34 דירה 19 פ"ת</t>
+  </si>
+  <si>
+    <t>העצמאות 83 דירה 16 פ"ת</t>
+  </si>
+  <si>
+    <t>ניגונים 28 פ"ת</t>
+  </si>
+  <si>
+    <t>חיים זכאי 12 דירה 1 פ"ת</t>
+  </si>
+  <si>
+    <t>מייזנר 3 דירה 20 קומה 5 פ"ת</t>
+  </si>
+  <si>
+    <t>העצמאות 79, דירה 1 פ"ת</t>
+  </si>
+  <si>
+    <t>הניצנים 16 א פ"ת</t>
+  </si>
+  <si>
+    <t>יוסף נקר 39 דירה 11 פ"ת</t>
+  </si>
+  <si>
+    <t>משה אויערבך 4/38 פ"ת</t>
+  </si>
+  <si>
+    <t>בן גוריון 23 דירה 9 פ"ת</t>
+  </si>
+  <si>
+    <t>יוסף נקר 39 דירה 4 פ"ת</t>
+  </si>
+  <si>
+    <t>יוסף נקר 33 דירה 7 פ"ת</t>
+  </si>
+  <si>
+    <t>יוסף נקר 33 דירה 6 פ"ת</t>
+  </si>
+  <si>
+    <t>יוסף נקר 42 דירה 19 פ"ת</t>
+  </si>
+  <si>
+    <t>יוסף נקר 34 דירה 4 פ"ת</t>
+  </si>
+  <si>
+    <t>מייזנר 15 דירה 24 פ"ת</t>
+  </si>
+  <si>
+    <t>גבריאל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יסמין   </t>
+  </si>
+  <si>
+    <t>שי</t>
+  </si>
+  <si>
+    <t>רון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אימבר    </t>
+  </si>
+  <si>
+    <t>אורי</t>
+  </si>
+  <si>
+    <t>אנה</t>
+  </si>
+  <si>
+    <t>הראל</t>
+  </si>
+  <si>
+    <t>מרק</t>
+  </si>
+  <si>
+    <t>דיאן</t>
+  </si>
+  <si>
+    <t>דותן</t>
+  </si>
+  <si>
+    <t>דורון</t>
+  </si>
+  <si>
+    <t>אסף</t>
+  </si>
+  <si>
+    <t>בני</t>
+  </si>
+  <si>
+    <t>דני</t>
+  </si>
+  <si>
+    <t>שלומי</t>
+  </si>
+  <si>
+    <t>אורן</t>
+  </si>
+  <si>
+    <t>גו'זי</t>
+  </si>
+  <si>
+    <t>ברק</t>
+  </si>
+  <si>
+    <t>אורלי</t>
+  </si>
+  <si>
+    <t>ליבי</t>
+  </si>
+  <si>
+    <t>ארי</t>
+  </si>
+  <si>
+    <t>יובל</t>
+  </si>
+  <si>
+    <t>אמילי</t>
+  </si>
+  <si>
+    <t>עמליה</t>
+  </si>
+  <si>
+    <t>הודיה</t>
+  </si>
+  <si>
+    <t>עמית</t>
+  </si>
+  <si>
+    <t>עופרי</t>
+  </si>
+  <si>
+    <t>אריאל</t>
+  </si>
+  <si>
+    <t>מתן</t>
+  </si>
+  <si>
+    <t>גאיה</t>
+  </si>
+  <si>
+    <t>אוהד</t>
+  </si>
+  <si>
+    <t>הללי</t>
+  </si>
+  <si>
+    <t>נטע</t>
+  </si>
+  <si>
+    <t>עידו</t>
+  </si>
+  <si>
+    <t>יונתן</t>
+  </si>
+  <si>
+    <t>קווה קיסר</t>
+  </si>
+  <si>
+    <t>גוילי</t>
+  </si>
+  <si>
+    <t>גולוב</t>
+  </si>
+  <si>
+    <t>גרנית</t>
+  </si>
+  <si>
+    <t>קסלר</t>
+  </si>
+  <si>
+    <t>ורד</t>
+  </si>
+  <si>
+    <t>חלאוי</t>
+  </si>
+  <si>
+    <t>טוטנאור</t>
+  </si>
+  <si>
+    <t>לב</t>
+  </si>
+  <si>
+    <t>לוי</t>
+  </si>
+  <si>
+    <t>מואס</t>
+  </si>
+  <si>
+    <t>יהונתן</t>
+  </si>
+  <si>
+    <t>פז</t>
+  </si>
+  <si>
+    <t>פישר</t>
+  </si>
+  <si>
+    <t>פרטוש</t>
+  </si>
+  <si>
+    <t>קאופמן</t>
+  </si>
+  <si>
+    <t>קופל</t>
+  </si>
+  <si>
+    <t>ריגאן</t>
+  </si>
+  <si>
+    <t>שבחון</t>
+  </si>
+  <si>
+    <t>שליט</t>
+  </si>
+  <si>
+    <t>שגלוב</t>
+  </si>
+  <si>
+    <t>בן אהרון</t>
+  </si>
+  <si>
+    <t>בר דויד</t>
+  </si>
+  <si>
+    <t>יעל</t>
+  </si>
+  <si>
+    <t>ברקוביץ</t>
+  </si>
+  <si>
+    <t>אינה</t>
+  </si>
+  <si>
+    <t>רדי</t>
+  </si>
+  <si>
+    <t>יטקובסקי 42 פ"ת</t>
+  </si>
+  <si>
+    <t>בן גוריון 41 דירה 13 פ"ת</t>
+  </si>
+  <si>
+    <t>מאי</t>
+  </si>
+  <si>
+    <t>רונן</t>
+  </si>
+  <si>
+    <t>אסנת</t>
+  </si>
+  <si>
+    <t>אלון</t>
+  </si>
+  <si>
+    <t>נאור</t>
+  </si>
+  <si>
+    <t>יוסי</t>
+  </si>
+  <si>
+    <t>יואי</t>
+  </si>
+  <si>
+    <t>ארטם</t>
+  </si>
+  <si>
+    <t>שגיב</t>
+  </si>
+  <si>
+    <t>מיכאל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בוריס </t>
+  </si>
+  <si>
+    <t>AlmaAgamy.jpg</t>
+  </si>
+  <si>
+    <t>Ariel.jpg</t>
+  </si>
+  <si>
+    <t>DanielLevi.jpg</t>
+  </si>
+  <si>
+    <t>DanielS.jpg</t>
+  </si>
+  <si>
+    <t>Yanai.png</t>
+  </si>
+  <si>
+    <t>YuvalB.jpg</t>
+  </si>
+  <si>
+    <t>gaya.jpg</t>
+  </si>
+  <si>
+    <t>Guy.jpg</t>
+  </si>
+  <si>
+    <t>Johnathan.jpg</t>
+  </si>
+  <si>
+    <t>Mai.jpg</t>
+  </si>
+  <si>
+    <t>OriG.jpg</t>
+  </si>
+  <si>
+    <t>AmaliaG.jpg</t>
+  </si>
+  <si>
+    <t>Hila.jpg</t>
+  </si>
+  <si>
+    <t>ido.png</t>
+  </si>
+  <si>
+    <t>Hodaia.jpeg</t>
+  </si>
+  <si>
+    <t>Ari.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -84,7 +599,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,15 +607,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="טקסט אזהרה" xfId="2" builtinId="11"/>
+    <cellStyle name="כותרת 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,61 +911,857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="2">
+        <v>972544436201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="2">
+        <v>972508754835</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>972522892876</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="2">
+        <v>972545545729</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2">
+        <v>972542000188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2">
+        <v>972528646503</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>972523000000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="2">
+        <v>972504939175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="2">
+        <v>972504939175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
+        <v>972546538090</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="2">
+        <v>972549936539</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>972543551600</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>972543551700</v>
+      </c>
+      <c r="G8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>972543131900</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="2">
+        <v>972544344911</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="2">
+        <v>972544622230</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="2">
+        <v>972544623737</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>972523251680</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>972537774291</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>972544460209</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="2">
+        <v>972546301169</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D13" s="2">
         <v>972522207747</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F13" s="2">
         <v>972522650929</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>972543090967</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="2">
+        <v>972548050049</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2">
+        <v>972533055939</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="2">
+        <v>972506220185</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="2">
+        <v>972544301689</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="2">
+        <v>972542237000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="2">
+        <v>972505077333</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="2">
+        <v>972523148844</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <v>972549002777</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="2">
+        <v>972544475678</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2">
+        <v>972523636595</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="2">
+        <v>972543941594</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2">
+        <v>972504014924</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="2">
+        <v>972523122475</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2">
+        <v>972542392272</v>
+      </c>
+      <c r="E21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="2">
+        <v>972542265157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>972546224994</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="2">
+        <v>972548885446</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="2">
+        <v>972527909388</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="2">
+        <v>972545348059</v>
+      </c>
+      <c r="G23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5">
+        <v>972542585758</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="5">
+        <v>972507500943</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="2">
+        <v>972506826095</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="2">
+        <v>972544331875</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2">
+        <v>972524831204</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="2">
+        <v>972544750146</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>972546485889</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="2">
+        <v>972505113454</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2">
+        <v>972505421413</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="2">
+        <v>972542091995</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2">
+        <v>972523597664</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="2">
+        <v>972547859997</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="2">
+        <v>972504228346</v>
+      </c>
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="2">
+        <v>972545976683</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2">
+        <v>972524405461</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="2">
+        <v>972544905481</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2">
+        <v>972546383929</v>
+      </c>
+      <c r="E32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="2">
+        <v>972547747120</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K32">
+    <sortCondition ref="A2:A32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DC38B8-04FE-4C6A-87E4-1FC5F3780E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF82AFC-F30B-436B-BF9C-016393511137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="207">
   <si>
     <t>firstName</t>
   </si>
@@ -93,12 +101,6 @@
     <t>גיא</t>
   </si>
   <si>
-    <t>מגדר</t>
-  </si>
-  <si>
-    <t>בן</t>
-  </si>
-  <si>
     <t>dateBirth</t>
   </si>
   <si>
@@ -559,6 +561,99 @@
   </si>
   <si>
     <t>Ari.jpg</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>יוסף נקר 33</t>
+  </si>
+  <si>
+    <t>קפלנסקי 67</t>
+  </si>
+  <si>
+    <t>יוסף נקר 39</t>
+  </si>
+  <si>
+    <t>ישראל עידוד 5</t>
+  </si>
+  <si>
+    <t>בן גוריון 34</t>
+  </si>
+  <si>
+    <t>העצמאות 73</t>
+  </si>
+  <si>
+    <t>בן גוריון 41</t>
+  </si>
+  <si>
+    <t>הניצנים 16 א</t>
+  </si>
+  <si>
+    <t>שמחי דוד 7</t>
+  </si>
+  <si>
+    <t>מייזנר 3</t>
+  </si>
+  <si>
+    <t>מייזנר 15</t>
+  </si>
+  <si>
+    <t>העצמאות 83</t>
+  </si>
+  <si>
+    <t>חיים זכאי 12</t>
+  </si>
+  <si>
+    <t>לאה אמסטר 10</t>
+  </si>
+  <si>
+    <t>העצמאות 67</t>
+  </si>
+  <si>
+    <t>עמנואל זמיר 12</t>
+  </si>
+  <si>
+    <t>העצמאות 97</t>
+  </si>
+  <si>
+    <t>יטקובסקי 42</t>
+  </si>
+  <si>
+    <t>עמנואל זמיר 4</t>
+  </si>
+  <si>
+    <t>בן גוריון 23</t>
+  </si>
+  <si>
+    <t>משה אויערבך 4</t>
+  </si>
+  <si>
+    <t>ניגונים 37</t>
+  </si>
+  <si>
+    <t>יוסף נקר 42</t>
+  </si>
+  <si>
+    <t>העצמאות 79</t>
+  </si>
+  <si>
+    <t>יוסף נקר 34</t>
+  </si>
+  <si>
+    <t>ניגונים 28</t>
+  </si>
+  <si>
+    <t>חיים זכאי 2</t>
+  </si>
+  <si>
+    <t>fullAddress</t>
   </si>
 </sst>
 </file>
@@ -911,20 +1006,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="18.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,95 +1041,125 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2">
         <v>972544436201</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2">
         <v>972508754835</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>972522892876</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" s="2">
         <v>972545545729</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2">
         <v>972542000188</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2">
         <v>972528646503</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1045,67 +1173,82 @@
         <v>972523000000</v>
       </c>
       <c r="G5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
-        <v>162</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2">
         <v>972504939175</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6" s="2">
         <v>972504939175</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>972546538090</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2">
         <v>972549936539</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="J7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1123,68 +1266,86 @@
         <v>972543551700</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>972543131900</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2">
         <v>972544344911</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2">
         <v>972544622230</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="2">
         <v>972544623737</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1204,18 +1365,24 @@
         <v>972537774291</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="J11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1224,22 +1391,28 @@
         <v>972544460209</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2">
         <v>972546301169</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1259,508 +1432,629 @@
         <v>972522650929</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
         <v>972543090967</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2">
         <v>972548050049</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="J14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2">
         <v>972533055939</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2">
         <v>972506220185</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="J15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="2">
         <v>972544301689</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2">
         <v>972542237000</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2">
         <v>972505077333</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2">
         <v>972523148844</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>972549002777</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F18" s="2">
         <v>972544475678</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>192</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>972523636595</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2">
         <v>972543941594</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2">
         <v>972504014924</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2">
         <v>972523122475</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2">
         <v>972542392272</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F21" s="2">
         <v>972542265157</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="H21" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2">
         <v>972546224994</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2">
         <v>972548885446</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
         <v>145</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" t="s">
-        <v>147</v>
       </c>
       <c r="D23" s="2">
         <v>972527909388</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F23" s="2">
         <v>972545348059</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5">
         <v>972542585758</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="5">
         <v>972507500943</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>50</v>
+      <c r="G24" t="s">
+        <v>197</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="J24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2">
         <v>972506826095</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F25" s="2">
         <v>972544331875</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
+      <c r="J25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2">
         <v>972524831204</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="2">
         <v>972544750146</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2">
         <v>972546485889</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" s="2">
         <v>972505113454</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>178</v>
+      </c>
+      <c r="K27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2">
         <v>972505421413</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F28" s="2">
         <v>972542091995</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2">
         <v>972523597664</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="2">
         <v>972547859997</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="J29" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2">
         <v>972504228346</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F30" s="2">
         <v>972545976683</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="J30" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2">
         <v>972524405461</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="2">
         <v>972544905481</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>204</v>
+      </c>
+      <c r="J31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>972546383929</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F32" s="2">
         <v>972547747120</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="J32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K32">
     <sortCondition ref="A2:A32"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J32" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">
+      <formula1>$M$3:$M$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF82AFC-F30B-436B-BF9C-016393511137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA70748-7ECD-41E8-AADC-4B26389B5678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t xml:space="preserve">ויקי </t>
   </si>
   <si>
-    <t>ישראל עידוד 5 פ"ת</t>
-  </si>
-  <si>
     <t>אורינגר</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>15.4.2014</t>
   </si>
   <si>
-    <t>עמנואל זמיר 4 דירה 18</t>
-  </si>
-  <si>
     <t>ליהי</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>17.10.2013</t>
   </si>
   <si>
-    <t>העצמאות 97 דירה 7 פ״ת</t>
-  </si>
-  <si>
     <t>ינאי</t>
   </si>
   <si>
@@ -212,81 +203,6 @@
     <t xml:space="preserve">אלונה </t>
   </si>
   <si>
-    <t>ניגונים 37 פ"ת</t>
-  </si>
-  <si>
-    <t>העצמאות 73 דירה 7 פ"ת</t>
-  </si>
-  <si>
-    <t>בן גוריון 34 דירה 1 פ"ת</t>
-  </si>
-  <si>
-    <t>לאה אמסטר 10 פ"ת</t>
-  </si>
-  <si>
-    <t>העצמאות 67 דירה 3 פ"ת</t>
-  </si>
-  <si>
-    <t>קפלנסקי 67 דירה 22 פ"ת</t>
-  </si>
-  <si>
-    <t>העצמאות 73 דירה 13 פ"ת</t>
-  </si>
-  <si>
-    <t>חיים זכאי 2 , דירה 6 פ"ת</t>
-  </si>
-  <si>
-    <t>עמנואל זמיר 12 דירה 1 פ"ת</t>
-  </si>
-  <si>
-    <t>בן גוריון 34 דירה 19 פ"ת</t>
-  </si>
-  <si>
-    <t>העצמאות 83 דירה 16 פ"ת</t>
-  </si>
-  <si>
-    <t>ניגונים 28 פ"ת</t>
-  </si>
-  <si>
-    <t>חיים זכאי 12 דירה 1 פ"ת</t>
-  </si>
-  <si>
-    <t>מייזנר 3 דירה 20 קומה 5 פ"ת</t>
-  </si>
-  <si>
-    <t>העצמאות 79, דירה 1 פ"ת</t>
-  </si>
-  <si>
-    <t>הניצנים 16 א פ"ת</t>
-  </si>
-  <si>
-    <t>יוסף נקר 39 דירה 11 פ"ת</t>
-  </si>
-  <si>
-    <t>משה אויערבך 4/38 פ"ת</t>
-  </si>
-  <si>
-    <t>בן גוריון 23 דירה 9 פ"ת</t>
-  </si>
-  <si>
-    <t>יוסף נקר 39 דירה 4 פ"ת</t>
-  </si>
-  <si>
-    <t>יוסף נקר 33 דירה 7 פ"ת</t>
-  </si>
-  <si>
-    <t>יוסף נקר 33 דירה 6 פ"ת</t>
-  </si>
-  <si>
-    <t>יוסף נקר 42 דירה 19 פ"ת</t>
-  </si>
-  <si>
-    <t>יוסף נקר 34 דירה 4 פ"ת</t>
-  </si>
-  <si>
-    <t>מייזנר 15 דירה 24 פ"ת</t>
-  </si>
-  <si>
     <t>גבריאל</t>
   </si>
   <si>
@@ -476,12 +392,6 @@
     <t>רדי</t>
   </si>
   <si>
-    <t>יטקובסקי 42 פ"ת</t>
-  </si>
-  <si>
-    <t>בן גוריון 41 דירה 13 פ"ת</t>
-  </si>
-  <si>
     <t>מאי</t>
   </si>
   <si>
@@ -654,6 +564,96 @@
   </si>
   <si>
     <t>fullAddress</t>
+  </si>
+  <si>
+    <t>עמנואל זמיר 12 דירה 1 פתח תקווה</t>
+  </si>
+  <si>
+    <t>בן גוריון 34 דירה 1 פתח תקווה</t>
+  </si>
+  <si>
+    <t>יטקובסקי 42 פתח תקווה</t>
+  </si>
+  <si>
+    <t>בן גוריון 23 דירה 9 פתח תקווה</t>
+  </si>
+  <si>
+    <t>משה אויערבך 4/38 פתח תקווה</t>
+  </si>
+  <si>
+    <t>ניגונים 37 פתח תקווה</t>
+  </si>
+  <si>
+    <t>יוסף נקר 42 דירה 19 פתח תקווה</t>
+  </si>
+  <si>
+    <t>העצמאות 79, דירה 1 פתח תקווה</t>
+  </si>
+  <si>
+    <t>יוסף נקר 34 דירה 4 פתח תקווה</t>
+  </si>
+  <si>
+    <t>ניגונים 28 פתח תקווה</t>
+  </si>
+  <si>
+    <t>יוסף נקר 33 דירה 7 פתח תקווה</t>
+  </si>
+  <si>
+    <t>קפלנסקי 67 דירה 22 פתח תקווה</t>
+  </si>
+  <si>
+    <t>יוסף נקר 39 דירה 11 פתח תקווה</t>
+  </si>
+  <si>
+    <t>ישראל עידוד 5 פתח תקווה</t>
+  </si>
+  <si>
+    <t>בן גוריון 34 דירה 19 פתח תקווה</t>
+  </si>
+  <si>
+    <t>העצמאות 73 דירה 13 פתח תקווה</t>
+  </si>
+  <si>
+    <t>בן גוריון 41 דירה 13 פתח תקווה</t>
+  </si>
+  <si>
+    <t>הניצנים 16 א פתח תקווה</t>
+  </si>
+  <si>
+    <t>העצמאות 73 דירה 7 פתח תקווה</t>
+  </si>
+  <si>
+    <t>מייזנר 3 דירה 20 קומה 5 פתח תקווה</t>
+  </si>
+  <si>
+    <t>מייזנר 15 דירה 24 פתח תקווה</t>
+  </si>
+  <si>
+    <t>העצמאות 83 דירה 16 פתח תקווה</t>
+  </si>
+  <si>
+    <t>חיים זכאי 12 דירה 1 פתח תקווה</t>
+  </si>
+  <si>
+    <t>יוסף נקר 39 דירה 4 פתח תקווה</t>
+  </si>
+  <si>
+    <t>יוסף נקר 33 דירה 6 פתח תקווה</t>
+  </si>
+  <si>
+    <t>לאה אמסטר 10 פתח תקווה</t>
+  </si>
+  <si>
+    <t>העצמאות 67 דירה 3 פתח תקווה</t>
+  </si>
+  <si>
+    <t>העצמאות 97 דירה 7 פתח תקווה</t>
+  </si>
+  <si>
+    <t>עמנואל זמיר 4 דירה 18 פתח תקווה</t>
+  </si>
+  <si>
+    <t>חיים זכאי 2 דירה 6 פתח תקווה</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1018,8 +1018,9 @@
     <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="18.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="9" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1045,118 +1046,118 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2">
         <v>972544436201</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2">
         <v>972508754835</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="M2" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>972522892876</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2">
         <v>972545545729</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="M3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2">
         <v>972542000188</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2">
         <v>972528646503</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="M4" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1173,16 +1174,16 @@
         <v>972523000000</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1190,68 +1191,68 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2">
         <v>972504939175</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2">
         <v>972504939175</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>972546538090</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2">
         <v>972549936539</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1260,121 +1261,121 @@
         <v>972543551600</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
         <v>972543551700</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K8" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2">
         <v>972543131900</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F9" s="2">
         <v>972544344911</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
         <v>972544622230</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2">
         <v>972544623737</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>972523251680</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
         <v>972537774291</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="H11" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1382,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1391,25 +1392,25 @@
         <v>972544460209</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2">
         <v>972546301169</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1432,618 +1433,618 @@
         <v>972522650929</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>972543090967</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2">
         <v>972548050049</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2">
         <v>972533055939</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2">
         <v>972506220185</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2">
         <v>972544301689</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2">
         <v>972542237000</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2">
         <v>972505077333</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2">
         <v>972523148844</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2">
         <v>972549002777</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2">
         <v>972544475678</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>972523636595</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2">
         <v>972543941594</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2">
         <v>972504014924</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2">
         <v>972523122475</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s">
         <v>177</v>
-      </c>
-      <c r="K20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2">
         <v>972542392272</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="F21" s="2">
         <v>972542265157</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2">
         <v>972546224994</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2">
         <v>972548885446</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K22" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2">
         <v>972527909388</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="F23" s="2">
         <v>972545348059</v>
       </c>
       <c r="G23" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5">
         <v>972542585758</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5">
         <v>972507500943</v>
       </c>
       <c r="G24" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2">
         <v>972506826095</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2">
         <v>972544331875</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2">
         <v>972524831204</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2">
         <v>972544750146</v>
       </c>
       <c r="G26" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="J26" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2">
         <v>972546485889</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2">
         <v>972505113454</v>
       </c>
       <c r="G27" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2">
         <v>972505421413</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F28" s="2">
         <v>972542091995</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="J28" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2">
         <v>972523597664</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2">
         <v>972547859997</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K29" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="2">
         <v>972504228346</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F30" s="2">
         <v>972545976683</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2">
         <v>972524405461</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2">
         <v>972544905481</v>
       </c>
       <c r="G31" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>972546383929</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="F32" s="2">
         <v>972547747120</v>
       </c>
       <c r="G32" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="J32" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA70748-7ECD-41E8-AADC-4B26389B5678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8505E57C-1461-46CB-9B4B-0D9DD8A03FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="209">
   <si>
     <t>firstName</t>
   </si>
@@ -152,9 +152,6 @@
     <t>27.4.2014</t>
   </si>
   <si>
-    <t>אורלי כהן מואס</t>
-  </si>
-  <si>
     <t>2.4.2014</t>
   </si>
   <si>
@@ -654,6 +651,15 @@
   </si>
   <si>
     <t>חיים זכאי 2 דירה 6 פתח תקווה</t>
+  </si>
+  <si>
+    <t>קינן</t>
+  </si>
+  <si>
+    <t>teacher.jpg</t>
+  </si>
+  <si>
+    <t>המורה יפית</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,50 +1058,50 @@
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2">
         <v>972544436201</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2">
         <v>972508754835</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1104,60 +1110,60 @@
         <v>972522892876</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2">
         <v>972545545729</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
         <v>972542000188</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2">
         <v>972528646503</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" t="s">
-        <v>189</v>
-      </c>
-      <c r="M4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1171,19 +1177,19 @@
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>972523000000</v>
+        <v>972522649640</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1191,39 +1197,39 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2">
         <v>972504939175</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2">
         <v>972504939175</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
         <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -1232,24 +1238,24 @@
         <v>972546538090</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="2">
         <v>972549936539</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1267,83 +1273,83 @@
         <v>972543551700</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>972543131900</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2">
         <v>972544344911</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2">
         <v>972544622230</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2">
         <v>972544623737</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1366,16 +1372,16 @@
         <v>972537774291</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1383,7 +1389,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1392,25 +1398,25 @@
         <v>972544460209</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2">
         <v>972546301169</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1433,27 +1439,27 @@
         <v>972522650929</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1462,22 +1468,22 @@
         <v>972543090967</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2">
         <v>972548050049</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1485,7 +1491,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1494,22 +1500,22 @@
         <v>972533055939</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2">
         <v>972506220185</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1517,68 +1523,68 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2">
         <v>972544301689</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2">
         <v>972542237000</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2">
         <v>972505077333</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2">
         <v>972523148844</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -1587,27 +1593,27 @@
         <v>972549002777</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="2">
         <v>972544475678</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -1616,97 +1622,97 @@
         <v>972523636595</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2">
         <v>972543941594</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I19" t="s">
         <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2">
         <v>972504014924</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="2">
         <v>972523122475</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
         <v>972542392272</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2">
         <v>972542265157</v>
       </c>
       <c r="G21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1715,62 +1721,62 @@
         <v>972546224994</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2">
         <v>972548885446</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>116</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
       </c>
       <c r="D23" s="2">
         <v>972527909388</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" s="2">
         <v>972545348059</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>22</v>
@@ -1779,83 +1785,83 @@
         <v>972542585758</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="5">
         <v>972507500943</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
         <v>972506826095</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2">
         <v>972544331875</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2">
         <v>972524831204</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2">
         <v>972544750146</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1863,7 +1869,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
@@ -1872,126 +1878,126 @@
         <v>972546485889</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2">
         <v>972505113454</v>
       </c>
       <c r="G27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I27" t="s">
         <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2">
         <v>972505421413</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28" s="2">
         <v>972542091995</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2">
         <v>972523597664</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2">
         <v>972547859997</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2">
         <v>972504228346</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2">
         <v>972545976683</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -2000,27 +2006,27 @@
         <v>972524405461</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2">
         <v>972544905481</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -2029,22 +2035,39 @@
         <v>972546383929</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F32" s="2">
         <v>972547747120</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
         <v>206</v>
+      </c>
+      <c r="D33" s="2">
+        <v>972528092008</v>
+      </c>
+      <c r="H33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2075,7 @@
     <sortCondition ref="A2:A32"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J32" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J33" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">
       <formula1>$M$3:$M$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8505E57C-1461-46CB-9B4B-0D9DD8A03FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125E440-5DA5-4A17-8501-19A86AE89D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="212">
   <si>
     <t>firstName</t>
   </si>
@@ -488,9 +488,6 @@
     <t>יוסף נקר 39</t>
   </si>
   <si>
-    <t>ישראל עידוד 5</t>
-  </si>
-  <si>
     <t>בן גוריון 34</t>
   </si>
   <si>
@@ -660,6 +657,18 @@
   </si>
   <si>
     <t>המורה יפית</t>
+  </si>
+  <si>
+    <t>YuvalK.jpg</t>
+  </si>
+  <si>
+    <t>OriPaz.png</t>
+  </si>
+  <si>
+    <t>עלמה</t>
+  </si>
+  <si>
+    <t>בן גוריון 42</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:J33"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1070,7 @@
         <v>145</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -1090,7 +1099,7 @@
         <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M2" t="s">
         <v>145</v>
@@ -1128,7 +1137,7 @@
         <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
         <v>146</v>
@@ -1156,11 +1165,14 @@
       <c r="G4" t="s">
         <v>150</v>
       </c>
+      <c r="H4" t="s">
+        <v>209</v>
+      </c>
       <c r="J4" t="s">
         <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M4" t="s">
         <v>147</v>
@@ -1171,19 +1183,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2">
-        <v>972522649640</v>
+        <v>972504939175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="2">
+        <v>972504939175</v>
       </c>
       <c r="G5" t="s">
         <v>151</v>
       </c>
-      <c r="H5" t="s">
-        <v>129</v>
+      <c r="I5" t="s">
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>147</v>
@@ -1194,29 +1212,26 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>972504939175</v>
+        <v>972546538090</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2">
-        <v>972504939175</v>
+        <v>972549936539</v>
       </c>
       <c r="G6" t="s">
         <v>152</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
       <c r="J6" t="s">
         <v>147</v>
       </c>
@@ -1226,28 +1241,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>972546538090</v>
+        <v>972543551600</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>972549936539</v>
+        <v>972543551700</v>
       </c>
       <c r="G7" t="s">
         <v>153</v>
       </c>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
         <v>191</v>
@@ -1255,28 +1273,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>972543551600</v>
+        <v>972543131900</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2">
-        <v>972543551700</v>
+        <v>972544344911</v>
       </c>
       <c r="G8" t="s">
         <v>154</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
         <v>146</v>
@@ -1287,95 +1305,98 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2">
-        <v>972543131900</v>
+        <v>972544622230</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2">
-        <v>972544344911</v>
+        <v>972544623737</v>
       </c>
       <c r="G9" t="s">
         <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K9" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>972544622230</v>
+        <v>972523251680</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
-        <v>972544623737</v>
+        <v>972537774291</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="J10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>972523251680</v>
+        <v>972544460209</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2">
-        <v>972537774291</v>
+        <v>972546301169</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
       </c>
       <c r="J11" t="s">
         <v>146</v>
@@ -1389,28 +1410,28 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>972522207747</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
-        <v>972544460209</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
       <c r="F12" s="2">
-        <v>972546301169</v>
+        <v>972522650929</v>
       </c>
       <c r="G12" t="s">
         <v>157</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
         <v>146</v>
@@ -1421,34 +1442,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
-        <v>972522207747</v>
+        <v>972543090967</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2">
-        <v>972522650929</v>
+        <v>972548050049</v>
       </c>
       <c r="G13" t="s">
         <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
         <v>196</v>
@@ -1456,28 +1474,28 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2">
-        <v>972543090967</v>
+        <v>972533055939</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2">
-        <v>972548050049</v>
+        <v>972506220185</v>
       </c>
       <c r="G14" t="s">
         <v>159</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
         <v>147</v>
@@ -1491,25 +1509,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D15" s="2">
-        <v>972533055939</v>
+        <v>972544301689</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2">
-        <v>972506220185</v>
+        <v>972542237000</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" t="s">
-        <v>141</v>
+        <v>150</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
       </c>
       <c r="J15" t="s">
         <v>147</v>
@@ -1520,28 +1538,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2">
-        <v>972544301689</v>
+        <v>972505077333</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F16" s="2">
-        <v>972542237000</v>
+        <v>972523148844</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
         <v>147</v>
@@ -1552,31 +1567,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="D17" s="2">
-        <v>972505077333</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="2">
-        <v>972523148844</v>
-      </c>
-      <c r="G17" t="s">
-        <v>148</v>
+        <v>972528092008</v>
+      </c>
+      <c r="H17" t="s">
+        <v>206</v>
       </c>
       <c r="J17" t="s">
         <v>147</v>
-      </c>
-      <c r="K17" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1599,13 +1602,13 @@
         <v>972544475678</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
         <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1628,7 +1631,7 @@
         <v>972543941594</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
         <v>134</v>
@@ -1640,7 +1643,7 @@
         <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1663,7 +1666,10 @@
         <v>972523122475</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="H20" t="s">
+        <v>208</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -1672,7 +1678,7 @@
         <v>146</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1695,7 +1701,7 @@
         <v>972542265157</v>
       </c>
       <c r="G21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
         <v>137</v>
@@ -1704,7 +1710,7 @@
         <v>146</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1727,7 +1733,7 @@
         <v>972548885446</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
         <v>133</v>
@@ -1739,7 +1745,7 @@
         <v>146</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1762,13 +1768,13 @@
         <v>972545348059</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
         <v>146</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1791,7 +1797,7 @@
         <v>972507500943</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1799,7 +1805,7 @@
         <v>147</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1822,7 +1828,7 @@
         <v>972544331875</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
         <v>138</v>
@@ -1832,7 +1838,7 @@
         <v>147</v>
       </c>
       <c r="K25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1855,13 +1861,13 @@
         <v>972544750146</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J26" t="s">
         <v>146</v>
       </c>
       <c r="K26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1884,7 +1890,7 @@
         <v>972505113454</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I27" t="s">
         <v>23</v>
@@ -1893,7 +1899,7 @@
         <v>147</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1916,13 +1922,13 @@
         <v>972542091995</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J28" t="s">
         <v>147</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1945,7 +1951,7 @@
         <v>972547859997</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I29" t="s">
         <v>39</v>
@@ -1954,7 +1960,7 @@
         <v>147</v>
       </c>
       <c r="K29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1977,7 +1983,7 @@
         <v>972545976683</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H30" t="s">
         <v>142</v>
@@ -1989,90 +1995,99 @@
         <v>146</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2">
-        <v>972524405461</v>
-      </c>
-      <c r="E31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="2">
-        <v>972544905481</v>
+        <v>972522649640</v>
       </c>
       <c r="G31" t="s">
-        <v>173</v>
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>129</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2">
+        <v>972524405461</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="2">
+        <v>972544905481</v>
+      </c>
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>972546383929</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>972547747120</v>
       </c>
-      <c r="G32" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" t="s">
         <v>140</v>
-      </c>
-      <c r="J32" t="s">
-        <v>147</v>
-      </c>
-      <c r="K32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="2">
-        <v>972528092008</v>
-      </c>
-      <c r="H33" t="s">
-        <v>207</v>
       </c>
       <c r="J33" t="s">
         <v>147</v>
       </c>
+      <c r="K33" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K32">
-    <sortCondition ref="A2:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J33" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">

--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125E440-5DA5-4A17-8501-19A86AE89D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E86CEA-4F0D-4891-A75D-51D46231B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1567,48 +1567,66 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="2">
-        <v>972528092008</v>
-      </c>
-      <c r="H17" t="s">
-        <v>206</v>
+        <v>972549002777</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="2">
+        <v>972544475678</v>
+      </c>
+      <c r="G17" t="s">
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
-        <v>972549002777</v>
+        <v>972523636595</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2">
-        <v>972544475678</v>
+        <v>972543941594</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
       </c>
       <c r="J18" t="s">
         <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1616,481 +1634,463 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2">
-        <v>972523636595</v>
+        <v>972504014924</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2">
-        <v>972543941594</v>
+        <v>972523122475</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s">
         <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>972504014924</v>
+        <v>972542392272</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2">
-        <v>972523122475</v>
+        <v>972542265157</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>208</v>
-      </c>
-      <c r="I20" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="J20" t="s">
         <v>146</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2">
-        <v>972542392272</v>
+        <v>972546224994</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="F21" s="2">
-        <v>972542265157</v>
+        <v>972548885446</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
       </c>
       <c r="J21" t="s">
         <v>146</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2">
-        <v>972546224994</v>
+        <v>972527909388</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F22" s="2">
-        <v>972548885446</v>
+        <v>972545348059</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
         <v>146</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="2">
-        <v>972527909388</v>
-      </c>
-      <c r="E23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="2">
-        <v>972545348059</v>
+      <c r="A23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5">
+        <v>972542585758</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5">
+        <v>972507500943</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="5">
-        <v>972542585758</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="5">
-        <v>972507500943</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2">
+        <v>972506826095</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2">
+        <v>972544331875</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="H24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24"/>
       <c r="J24" t="s">
         <v>147</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2">
-        <v>972506826095</v>
+        <v>972524831204</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2">
-        <v>972544331875</v>
+        <v>972544750146</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25"/>
+        <v>167</v>
+      </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2">
-        <v>972524831204</v>
+        <v>972546485889</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F26" s="2">
-        <v>972544750146</v>
+        <v>972505113454</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2">
-        <v>972546485889</v>
+        <v>972505421413</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F27" s="2">
-        <v>972505113454</v>
+        <v>972542091995</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="J27" t="s">
         <v>147</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2">
-        <v>972505421413</v>
+        <v>972523597664</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2">
-        <v>972542091995</v>
+        <v>972547859997</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
       </c>
       <c r="J28" t="s">
         <v>147</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2">
-        <v>972523597664</v>
+        <v>972504228346</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F29" s="2">
-        <v>972547859997</v>
+        <v>972545976683</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="H29" t="s">
+        <v>142</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2">
-        <v>972504228346</v>
-      </c>
-      <c r="E30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="2">
-        <v>972545976683</v>
+        <v>972522649640</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2">
-        <v>972522649640</v>
+        <v>972524405461</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="2">
+        <v>972544905481</v>
       </c>
       <c r="G31" t="s">
-        <v>211</v>
-      </c>
-      <c r="H31" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="J31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
-        <v>972524405461</v>
+        <v>972546383929</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="F32" s="2">
-        <v>972544905481</v>
+        <v>972547747120</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="H32" t="s">
+        <v>140</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="D33" s="2">
-        <v>972546383929</v>
-      </c>
-      <c r="E33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="2">
-        <v>972547747120</v>
-      </c>
-      <c r="G33" t="s">
-        <v>173</v>
+        <v>972528092008</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="J33" t="s">
         <v>147</v>
       </c>
-      <c r="K33" t="s">
-        <v>204</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
-    <sortCondition ref="A2:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="A7:A16"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J33" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J16 J17:J32 J33" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">
       <formula1>$M$3:$M$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E86CEA-4F0D-4891-A75D-51D46231B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF31DEB-C61D-476A-A7C5-FE9E2E6105E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,9 +599,6 @@
     <t>יוסף נקר 39 דירה 11 פתח תקווה</t>
   </si>
   <si>
-    <t>ישראל עידוד 5 פתח תקווה</t>
-  </si>
-  <si>
     <t>בן גוריון 34 דירה 19 פתח תקווה</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>בן גוריון 42</t>
+  </si>
+  <si>
+    <t>בן גוריון 42 פתח תקווה</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1166,7 @@
         <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J4" t="s">
         <v>146</v>
@@ -1207,7 +1207,7 @@
         <v>147</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1236,7 +1236,7 @@
         <v>147</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1268,7 +1268,7 @@
         <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1300,7 +1300,7 @@
         <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1367,7 +1367,7 @@
         <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1437,7 +1437,7 @@
         <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
         <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1501,7 +1501,7 @@
         <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1533,7 +1533,7 @@
         <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
         <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1591,7 +1591,7 @@
         <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
         <v>162</v>
       </c>
       <c r="H19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I19" t="s">
         <v>33</v>
@@ -1693,7 +1693,7 @@
         <v>146</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1788,7 +1788,7 @@
         <v>147</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1983,7 +1983,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1995,7 +1995,7 @@
         <v>972522649640</v>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H30" t="s">
         <v>129</v>
@@ -2004,7 +2004,7 @@
         <v>147</v>
       </c>
       <c r="K30" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2065,21 +2065,21 @@
         <v>147</v>
       </c>
       <c r="K32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="2">
         <v>972528092008</v>
       </c>
       <c r="H33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J33" t="s">
         <v>147</v>
@@ -2090,7 +2090,7 @@
     <sortCondition ref="A7:A16"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J16 J17:J32 J33" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J33" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">
       <formula1>$M$3:$M$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF31DEB-C61D-476A-A7C5-FE9E2E6105E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D5BF4-B794-4E45-8BD7-C1A123558224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="213">
   <si>
     <t>firstName</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>בן גוריון 42 פתח תקווה</t>
+  </si>
+  <si>
+    <t>Emili.jpg</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,6 +1235,9 @@
       <c r="G6" t="s">
         <v>152</v>
       </c>
+      <c r="H6" t="s">
+        <v>212</v>
+      </c>
       <c r="J6" t="s">
         <v>147</v>
       </c>

--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D5BF4-B794-4E45-8BD7-C1A123558224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6F3FB8-615B-4AF7-909C-B3F0B760ADDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="216">
   <si>
     <t>firstName</t>
   </si>
@@ -672,6 +672,15 @@
   </si>
   <si>
     <t>Emili.jpg</t>
+  </si>
+  <si>
+    <t>HilaK.jpg</t>
+  </si>
+  <si>
+    <t>AlmaVered.jpg</t>
+  </si>
+  <si>
+    <t>Haleli.jpg</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1036,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1203,6 +1212,9 @@
       <c r="G5" t="s">
         <v>151</v>
       </c>
+      <c r="H5" t="s">
+        <v>214</v>
+      </c>
       <c r="I5" t="s">
         <v>34</v>
       </c>
@@ -1532,6 +1544,9 @@
       <c r="G15" t="s">
         <v>150</v>
       </c>
+      <c r="H15" t="s">
+        <v>213</v>
+      </c>
       <c r="I15" t="s">
         <v>45</v>
       </c>
@@ -1563,6 +1578,9 @@
       </c>
       <c r="G16" t="s">
         <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>215</v>
       </c>
       <c r="J16" t="s">
         <v>147</v>

--- a/Data/phonebook.xlsx
+++ b/Data/phonebook.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\source\repos\ClassA3.github.io\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\Downloads\ClassA3.github.io-main\ClassA3.github.io-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6F3FB8-615B-4AF7-909C-B3F0B760ADDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5CDCC-F20F-4FAF-81A5-B28254A411FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="227">
   <si>
     <t>firstName</t>
   </si>
@@ -539,9 +532,6 @@
     <t>משה אויערבך 4</t>
   </si>
   <si>
-    <t>ניגונים 37</t>
-  </si>
-  <si>
     <t>יוסף נקר 42</t>
   </si>
   <si>
@@ -575,9 +565,6 @@
     <t>משה אויערבך 4/38 פתח תקווה</t>
   </si>
   <si>
-    <t>ניגונים 37 פתח תקווה</t>
-  </si>
-  <si>
     <t>יוסף נקר 42 דירה 19 פתח תקווה</t>
   </si>
   <si>
@@ -596,9 +583,6 @@
     <t>קפלנסקי 67 דירה 22 פתח תקווה</t>
   </si>
   <si>
-    <t>יוסף נקר 39 דירה 11 פתח תקווה</t>
-  </si>
-  <si>
     <t>בן גוריון 34 דירה 19 פתח תקווה</t>
   </si>
   <si>
@@ -647,15 +631,9 @@
     <t>חיים זכאי 2 דירה 6 פתח תקווה</t>
   </si>
   <si>
-    <t>קינן</t>
-  </si>
-  <si>
     <t>teacher.jpg</t>
   </si>
   <si>
-    <t>המורה יפית</t>
-  </si>
-  <si>
     <t>YuvalK.jpg</t>
   </si>
   <si>
@@ -665,12 +643,6 @@
     <t>עלמה</t>
   </si>
   <si>
-    <t>בן גוריון 42</t>
-  </si>
-  <si>
-    <t>בן גוריון 42 פתח תקווה</t>
-  </si>
-  <si>
     <t>Emili.jpg</t>
   </si>
   <si>
@@ -681,13 +653,67 @@
   </si>
   <si>
     <t>Haleli.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דניאל </t>
+  </si>
+  <si>
+    <t>רחמים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קפלנסקי 66 </t>
+  </si>
+  <si>
+    <t>אליהו הכהן 1</t>
+  </si>
+  <si>
+    <t>נטליה</t>
+  </si>
+  <si>
+    <t>Call phone (+972527485478)</t>
+  </si>
+  <si>
+    <t>המורה מתן</t>
+  </si>
+  <si>
+    <t>ואזה</t>
+  </si>
+  <si>
+    <t>אליהו הכהן 1 דירה 32 פתח תקווה</t>
+  </si>
+  <si>
+    <t>ישראל עידוד 5</t>
+  </si>
+  <si>
+    <t>ישראל עידוד 5 דירה 7 פתח תקווה</t>
+  </si>
+  <si>
+    <t>קפלנסקי 66 דירה 1 פתח תקווה</t>
+  </si>
+  <si>
+    <t>בן גוריון 34 / גד מכנס 8</t>
+  </si>
+  <si>
+    <t>מייזנר 5</t>
+  </si>
+  <si>
+    <t>צחי</t>
+  </si>
+  <si>
+    <t>DanielR.jpg</t>
+  </si>
+  <si>
+    <t>22.2.2014</t>
+  </si>
+  <si>
+    <t>מייזנר 5 דירה 24 קומה 6 פתח תקווה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +736,28 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B57D0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -739,21 +787,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="3" builtinId="8"/>
     <cellStyle name="טקסט אזהרה" xfId="2" builtinId="11"/>
     <cellStyle name="כותרת 1" xfId="1" builtinId="16"/>
   </cellStyles>
@@ -1033,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1139,7 @@
         <v>145</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -1111,7 +1168,7 @@
         <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M2" t="s">
         <v>145</v>
@@ -1149,7 +1206,7 @@
         <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M3" t="s">
         <v>146</v>
@@ -1175,16 +1232,16 @@
         <v>972528646503</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J4" t="s">
         <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="M4" t="s">
         <v>147</v>
@@ -1210,10 +1267,10 @@
         <v>972504939175</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
         <v>34</v>
@@ -1222,7 +1279,7 @@
         <v>147</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1248,13 +1305,13 @@
         <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
         <v>147</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1286,7 +1343,7 @@
         <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1318,7 +1375,7 @@
         <v>146</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1385,7 +1442,7 @@
         <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1420,106 +1477,109 @@
         <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="D12" s="2">
-        <v>972522207747</v>
+        <v>972527485478</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="F12" s="2">
-        <v>972522650929</v>
+        <v>972526373217</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="J12" t="s">
         <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>972543090967</v>
+        <v>972522207747</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
-        <v>972548050049</v>
+        <v>972522650929</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>132</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
-        <v>972533055939</v>
+        <v>972543090967</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2">
-        <v>972506220185</v>
+        <v>972548050049</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
         <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1527,130 +1587,127 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2">
-        <v>972544301689</v>
+        <v>972533055939</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2">
-        <v>972542237000</v>
+        <v>972506220185</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H15" t="s">
-        <v>213</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
         <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2">
-        <v>972505077333</v>
+        <v>972544301689</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2">
-        <v>972523148844</v>
+        <v>972542237000</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H16" t="s">
-        <v>215</v>
+        <v>206</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
       </c>
       <c r="J16" t="s">
         <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2">
-        <v>972549002777</v>
+        <v>972505077333</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2">
-        <v>972544475678</v>
+        <v>972523148844</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>148</v>
+      </c>
+      <c r="H17" t="s">
+        <v>208</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2">
-        <v>972523636595</v>
+        <v>972549002777</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="F18" s="2">
-        <v>972543941594</v>
+        <v>972544475678</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
         <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1658,467 +1715,538 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>972504014924</v>
+        <v>972523636595</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2">
-        <v>972523122475</v>
+        <v>972543941594</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J19" t="s">
         <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2">
-        <v>972542392272</v>
+        <v>972504014924</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="2">
-        <v>972542265157</v>
+        <v>972523122475</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>202</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
       </c>
       <c r="J20" t="s">
         <v>146</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
-        <v>972546224994</v>
+        <v>972542392272</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2">
-        <v>972548885446</v>
+        <v>972542265157</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="J21" t="s">
         <v>146</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2">
-        <v>972527909388</v>
+        <v>972546224994</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2">
-        <v>972545348059</v>
+        <v>972548885446</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>151</v>
+      </c>
+      <c r="H22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
       </c>
       <c r="J22" t="s">
         <v>146</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2">
+        <v>972527909388</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="2">
+        <v>972545348059</v>
+      </c>
+      <c r="G23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <v>972542585758</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>972507500943</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>165</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="2">
-        <v>972506826095</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="2">
-        <v>972544331875</v>
-      </c>
-      <c r="G24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" t="s">
         <v>147</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>972524831204</v>
+        <v>972506826095</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2">
-        <v>972544750146</v>
+        <v>972544331875</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25"/>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2">
-        <v>972546485889</v>
+        <v>972524831204</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2">
-        <v>972505113454</v>
+        <v>972544750146</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="J26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2">
-        <v>972505421413</v>
+        <v>972546485889</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2">
-        <v>972542091995</v>
+        <v>972505113454</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>211</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
       </c>
       <c r="J27" t="s">
         <v>147</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2">
-        <v>972523597664</v>
+        <v>972505421413</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="F28" s="2">
-        <v>972547859997</v>
+        <v>972542091995</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="J28" t="s">
         <v>147</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2">
-        <v>972504228346</v>
+        <v>972523597664</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2">
-        <v>972545976683</v>
+        <v>972547859997</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2">
-        <v>972522649640</v>
+        <v>972504228346</v>
+      </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="2">
+        <v>972545976683</v>
       </c>
       <c r="G30" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K30" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2">
-        <v>972524405461</v>
-      </c>
-      <c r="E31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="2">
-        <v>972544905481</v>
+        <v>972522649640</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>218</v>
+      </c>
+      <c r="H31" t="s">
+        <v>129</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2">
+        <v>972524405461</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="2">
+        <v>972544905481</v>
+      </c>
+      <c r="G32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>972546383929</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
         <v>972547747120</v>
       </c>
-      <c r="G32" t="s">
-        <v>173</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" t="s">
         <v>140</v>
-      </c>
-      <c r="J32" t="s">
-        <v>147</v>
-      </c>
-      <c r="K32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="2">
-        <v>972528092008</v>
-      </c>
-      <c r="H33" t="s">
-        <v>205</v>
       </c>
       <c r="J33" t="s">
         <v>147</v>
       </c>
+      <c r="K33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="2">
+        <v>972525674920</v>
+      </c>
+      <c r="H34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
-    <sortCondition ref="A7:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
+    <sortCondition ref="A7:A17"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J33" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J34" xr:uid="{A2F2EFEE-40F8-4289-8B71-6D1FAD4C2EB2}">
       <formula1>$M$3:$M$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A37E871-B081-4129-B868-3FAFF08EE1B2}">
+  <dimension ref="A2:A12"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>527485478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>972525674920</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="tel:+972527485478" xr:uid="{2FB971CF-73D2-4616-9B7F-1C5B8ABDC275}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>